--- a/docs/test-cases/visorInformacionTecnicaRed.xlsx
+++ b/docs/test-cases/visorInformacionTecnicaRed.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDD6DB6-AC7B-4E86-B1BB-83C545F1093C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,15 +19,107 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+  <si>
+    <t>ID Caso</t>
+  </si>
+  <si>
+    <t>Nombre/ Descripcion</t>
+  </si>
+  <si>
+    <t>Tipo de prueba</t>
+  </si>
+  <si>
+    <t>Módulo</t>
+  </si>
+  <si>
+    <t>Precondiciones</t>
+  </si>
+  <si>
+    <t>Pasos a seguir</t>
+  </si>
+  <si>
+    <t>Datos de prueba</t>
+  </si>
+  <si>
+    <t>Resultado esperado</t>
+  </si>
+  <si>
+    <t>Resultado obtenido</t>
+  </si>
+  <si>
+    <t>Estado (OK/FALLA)</t>
+  </si>
+  <si>
+    <t>Automatizado</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CP_INFTECRED_001</t>
+  </si>
+  <si>
+    <t>eCenter</t>
+  </si>
+  <si>
+    <t>El usuario debe tener permisos para acceder a la vista</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ingreso a la vista visor de Informacion tecnica de red</t>
+  </si>
+  <si>
+    <t>1. Clic en módulo eCenter
+2. Scroll en el contenedor de aplicaciones
+3. Clic en "visor de Informacion tecnica de red"</t>
+  </si>
+  <si>
+    <t>El sistema debe redirigido correctamente la vista visor de Informacion tecnica de red</t>
+  </si>
+  <si>
+    <t>La vista se cargó sin errores</t>
+  </si>
+  <si>
+    <t>CP_INFTECRED_002</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +138,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +481,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:L3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/test-cases/visorInformacionTecnicaRed.xlsx
+++ b/docs/test-cases/visorInformacionTecnicaRed.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDD6DB6-AC7B-4E86-B1BB-83C545F1093C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>ID Caso</t>
   </si>
@@ -94,13 +93,31 @@
   </si>
   <si>
     <t>CP_INFTECRED_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtro de búsqueda </t>
+  </si>
+  <si>
+    <t>Haber ingresado a la vista y dado clic botón de mostrar filtro</t>
+  </si>
+  <si>
+    <t>CP_INFTECRED_003</t>
+  </si>
+  <si>
+    <t>Ver dispostivos</t>
+  </si>
+  <si>
+    <t>CP_INFTECRED_004</t>
+  </si>
+  <si>
+    <t>Editar estado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +138,14 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -181,11 +206,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -202,6 +264,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,16 +557,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
@@ -504,7 +580,7 @@
     <col min="12" max="12" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="120">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -580,23 +656,71 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="84.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="57" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="55.5" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="E7" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/test-cases/visorInformacionTecnicaRed.xlsx
+++ b/docs/test-cases/visorInformacionTecnicaRed.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>ID Caso</t>
   </si>
@@ -111,6 +111,80 @@
   </si>
   <si>
     <t>Editar estado</t>
+  </si>
+  <si>
+    <t>Haber seleccionado un registro con estado de puerto ASSIGN</t>
+  </si>
+  <si>
+    <t>1.Seleccionar registro 
+2.Clic en el botón "Ver dispositivos"
+3.Cerrar modal "Ver dispositivos"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Clic en el botón "Mostrar filtro"
+2.Clic en el &lt;select&gt; para mostrar opciones del filtro
+3.Seleccionar "CENTRO POBLADO"
+4.Escribir “PALMIRA” en el campo de texto
+5.Clic en “Aplicar filtros”
+6.Clic nuevamente en “Mostrar filtro”
+7.Clic en el botón "+ Add rule"
+8.Clic en select del segundo filtro
+9.Seleccionar “NAP SERIAL CELSIA”
+10.Diligenciar campo “3241009”
+11.Clic en “Aplicar filtro” nuevamente
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Clic en el botón
+ "Editar estado"
+2.Abrir el menú desplegable 
+de "Estado"
+3.Seleccionar opción "Suspendido"
+4.Guardar cambios (clic en "Editar estado" → Guardar)
+5.Clic nuevamente en el botón "Editar estado"
+6.Guardar cambios (volver a estado Activo)
+</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el resultado de búsqueda para los criterios de búsqueda</t>
+  </si>
+  <si>
+    <t>Se ha mostrado el resultado de busqueda correctamente</t>
+  </si>
+  <si>
+    <t>Se visualiza el modal correctamente con la informacion correcta</t>
+  </si>
+  <si>
+    <t>El sistema debe visualizar
+el modal correctamente
+con la información correspondiente</t>
+  </si>
+  <si>
+    <t>El sistema debe desplegar
+un modal para editar el estado
+del cliente y poder cambiar
+el estado</t>
+  </si>
+  <si>
+    <t>el modal se despliega
+correctamente y permite
+cambiar el estado del cliente</t>
+  </si>
+  <si>
+    <t>CP_INFTECRED_005</t>
+  </si>
+  <si>
+    <t>Editar</t>
+  </si>
+  <si>
+    <t>El sistema debe desplegar
+un modal para editar los
+datos del cliente</t>
+  </si>
+  <si>
+    <t>el modal se despliega
+correctamente y permite
+modificar datos del cliente</t>
   </si>
 </sst>
 </file>
@@ -147,15 +221,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -243,11 +323,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -273,11 +398,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +719,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -656,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="84.75" customHeight="1">
+    <row r="3" spans="1:12" ht="133.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -672,52 +830,142 @@
       <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="F3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="57" customHeight="1">
+    <row r="4" spans="1:12" ht="106.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="55.5" customHeight="1">
+    <row r="5" spans="1:12" ht="72.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="C5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="22" customFormat="1" ht="72.75" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="E7" s="11"/>
+      <c r="E7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/test-cases/visorInformacionTecnicaRed.xlsx
+++ b/docs/test-cases/visorInformacionTecnicaRed.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A27F404-BE4E-4309-B451-5EAD859271EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>ID Caso</t>
   </si>
@@ -186,12 +187,37 @@
 correctamente y permite
 modificar datos del cliente</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.Clic en botón "Editar"
+2.Diligenciar campo "Observaciones" en modal Editar
+3.Clic en botón "Editar / Guardar" en modal
+4.Cerrar modal de edición
+</t>
+  </si>
+  <si>
+    <t>CP_INFTECRED_006</t>
+  </si>
+  <si>
+    <t>refrescar</t>
+  </si>
+  <si>
+    <t>Haber ingresado a la vista</t>
+  </si>
+  <si>
+    <t>1.Clic en botón "Refrescar"</t>
+  </si>
+  <si>
+    <t>El sistema dede refrescar la vista correctamente</t>
+  </si>
+  <si>
+    <t>la vista se refresca correctamente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,10 +241,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -230,7 +255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -436,6 +460,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,14 +742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
@@ -738,7 +765,7 @@
     <col min="12" max="12" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="120">
+    <row r="2" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -814,7 +841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="133.5" customHeight="1">
+    <row r="3" spans="1:12" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -852,7 +879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="106.5" customHeight="1">
+    <row r="4" spans="1:12" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -868,7 +895,7 @@
       <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -890,20 +917,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="72.75" customHeight="1">
+    <row r="5" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -928,44 +955,81 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="22" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:12" s="21" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="E7" s="10"/>
+    <row r="7" spans="1:12" s="21" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/test-cases/visorInformacionTecnicaRed.xlsx
+++ b/docs/test-cases/visorInformacionTecnicaRed.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A27F404-BE4E-4309-B451-5EAD859271EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="visorInformacionTecnicaRed" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -216,8 +215,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,14 +741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
@@ -765,7 +764,7 @@
     <col min="12" max="12" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="120">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -841,7 +840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="133.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -879,7 +878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="106.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -917,7 +916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="72.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -955,7 +954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="21" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="21" customFormat="1" ht="105.75" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>40</v>
       </c>
@@ -993,7 +992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="21" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="21" customFormat="1" ht="105.75" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>45</v>
       </c>

--- a/docs/test-cases/visorInformacionTecnicaRed.xlsx
+++ b/docs/test-cases/visorInformacionTecnicaRed.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E350B5-DFC1-49ED-9572-78E7D4DFE3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="visorInformacionTecnicaRed" sheetId="1" r:id="rId1"/>
@@ -215,8 +216,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,14 +742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
@@ -764,7 +765,7 @@
     <col min="12" max="12" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="120">
+    <row r="2" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -840,7 +841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="133.5" customHeight="1">
+    <row r="3" spans="1:12" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -878,7 +879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="106.5" customHeight="1">
+    <row r="4" spans="1:12" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -916,7 +917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="72.75" customHeight="1">
+    <row r="5" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -954,7 +955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="21" customFormat="1" ht="105.75" customHeight="1">
+    <row r="6" spans="1:12" s="21" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>40</v>
       </c>
@@ -992,7 +993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="21" customFormat="1" ht="105.75" customHeight="1">
+    <row r="7" spans="1:12" s="21" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>45</v>
       </c>
